--- a/Extraction file.xlsx
+++ b/Extraction file.xlsx
@@ -483,6 +483,8 @@
 always
 miss
 Bob.
+Bob’s
+Legacy
 We’ll
 forever
 honor
